--- a/server/public/data - 副本.xlsx
+++ b/server/public/data - 副本.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="13725" windowHeight="12390"/>
+    <workbookView windowWidth="13635" windowHeight="10410"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="98">
   <si>
     <t>name</t>
   </si>
@@ -51,6 +51,9 @@
     <t>mother</t>
   </si>
   <si>
+    <t>spelling</t>
+  </si>
+  <si>
     <t>陈风</t>
   </si>
   <si>
@@ -60,7 +63,7 @@
     <t>1880.1.1</t>
   </si>
   <si>
-    <t>1950.5.6</t>
+    <t>1962.5.6</t>
   </si>
   <si>
     <t>男</t>
@@ -72,34 +75,46 @@
     <t>不详</t>
   </si>
   <si>
+    <t>chenfeng</t>
+  </si>
+  <si>
     <t>陈和</t>
   </si>
   <si>
     <t>1910.3.4</t>
   </si>
   <si>
-    <t>1968.2.2</t>
+    <t>1988.2.2</t>
   </si>
   <si>
     <t>林凤</t>
   </si>
   <si>
+    <t>chenhe</t>
+  </si>
+  <si>
     <t>陈金</t>
   </si>
   <si>
     <t>1915.9.1</t>
   </si>
   <si>
-    <t>1971.10.5</t>
+    <t>1991.10.5</t>
+  </si>
+  <si>
+    <t>chenjin</t>
   </si>
   <si>
     <t>陈勇</t>
   </si>
   <si>
+    <t>广东深圳</t>
+  </si>
+  <si>
     <t>1930.2.8</t>
   </si>
   <si>
-    <t>1992.5.7</t>
+    <t>2015.5.7</t>
   </si>
   <si>
     <t>初中</t>
@@ -111,13 +126,19 @@
     <t>王雪云</t>
   </si>
   <si>
+    <t>chenyong</t>
+  </si>
+  <si>
     <t>陈玲</t>
   </si>
   <si>
+    <t>广东广州</t>
+  </si>
+  <si>
     <t>1933.10.8</t>
   </si>
   <si>
-    <t>1995.12.12</t>
+    <t>2010.12.12</t>
   </si>
   <si>
     <t>女</t>
@@ -126,6 +147,9 @@
     <t>教师</t>
   </si>
   <si>
+    <t>chenling</t>
+  </si>
+  <si>
     <t>陈永康</t>
   </si>
   <si>
@@ -138,13 +162,19 @@
     <t>柯淑仪</t>
   </si>
   <si>
+    <t>chenyongkang</t>
+  </si>
+  <si>
     <t>陈玉凤</t>
   </si>
   <si>
     <t>1935.9.15</t>
   </si>
   <si>
-    <t>1997.2.18</t>
+    <t>2007.2.18</t>
+  </si>
+  <si>
+    <t>chenyufeng</t>
   </si>
   <si>
     <t>陈池</t>
@@ -162,6 +192,9 @@
     <t>黄怡</t>
   </si>
   <si>
+    <t>chenchi</t>
+  </si>
+  <si>
     <t>陈雄</t>
   </si>
   <si>
@@ -171,6 +204,9 @@
     <t>高中</t>
   </si>
   <si>
+    <t>chenxiong</t>
+  </si>
+  <si>
     <t>陈娥</t>
   </si>
   <si>
@@ -180,25 +216,100 @@
     <t>张娟</t>
   </si>
   <si>
+    <t>chene</t>
+  </si>
+  <si>
     <t>陈潮</t>
   </si>
   <si>
     <t>1968.7.22</t>
   </si>
   <si>
-    <t>张三</t>
-  </si>
-  <si>
-    <t>2002.7.24</t>
+    <t>chenchao</t>
+  </si>
+  <si>
+    <t>陈亦涛</t>
+  </si>
+  <si>
+    <t>1994.2.15</t>
   </si>
   <si>
     <t>大学</t>
   </si>
   <si>
+    <t>程序员</t>
+  </si>
+  <si>
+    <t>范萱</t>
+  </si>
+  <si>
+    <t>chenyitao</t>
+  </si>
+  <si>
+    <t>陈荣浩</t>
+  </si>
+  <si>
+    <t>1999.5.13</t>
+  </si>
+  <si>
+    <t>chenronghao</t>
+  </si>
+  <si>
+    <t>陈琳琳</t>
+  </si>
+  <si>
+    <t>2001.10.10</t>
+  </si>
+  <si>
     <t>学生</t>
   </si>
   <si>
-    <t>黄敏</t>
+    <t>chenlinlin</t>
+  </si>
+  <si>
+    <t>陈晓彬</t>
+  </si>
+  <si>
+    <t>1991.9.6</t>
+  </si>
+  <si>
+    <t>王妍</t>
+  </si>
+  <si>
+    <t>chenxiaobin</t>
+  </si>
+  <si>
+    <t>陈丹</t>
+  </si>
+  <si>
+    <t>1996.6.13</t>
+  </si>
+  <si>
+    <t>chendan</t>
+  </si>
+  <si>
+    <t>陈凯峰</t>
+  </si>
+  <si>
+    <t>1998.7.25</t>
+  </si>
+  <si>
+    <t>林蕊</t>
+  </si>
+  <si>
+    <t>chenkaifeng</t>
+  </si>
+  <si>
+    <t>陈景轩</t>
+  </si>
+  <si>
+    <t>2019.3.24</t>
+  </si>
+  <si>
+    <t>黄雯</t>
+  </si>
+  <si>
+    <t>chenjingxuan</t>
   </si>
 </sst>
 </file>
@@ -206,9 +317,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -221,31 +332,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -264,17 +353,37 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -288,16 +397,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -318,11 +420,27 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -336,7 +454,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -351,14 +469,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -380,19 +491,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -404,163 +611,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -571,15 +682,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -615,10 +717,17 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -639,24 +748,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -671,156 +762,177 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1204,475 +1316,742 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:12">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:11">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2">
+    <row r="2" s="1" customFormat="1" spans="1:12">
+      <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="1">
+        <v>82</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="1">
+        <v>178</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:12">
+      <c r="A3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="1">
+        <v>78</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="1">
+        <v>175</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:12">
+      <c r="A4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="1">
+        <v>76</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="1">
+        <v>174</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:12">
+      <c r="A5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="1">
+        <v>85</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="1">
+        <v>173</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:12">
+      <c r="A6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="1">
+        <v>77</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="1">
+        <v>167</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:12">
+      <c r="A7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="1">
+        <v>69</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="1">
+        <v>176</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="1:12">
+      <c r="A8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="1">
+        <v>72</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="1">
+        <v>168</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" spans="1:12">
+      <c r="A9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="1">
+        <v>60</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="1">
+        <v>171</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" spans="1:12">
+      <c r="A10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="1">
+        <v>57</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="1">
+        <v>172</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="1:12">
+      <c r="A11" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="1">
+        <v>55</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" s="1">
+        <v>165</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" spans="1:12">
+      <c r="A12" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" s="1">
+        <v>54</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="1">
+        <v>173</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" spans="1:12">
+      <c r="A13" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="B13" s="1">
+        <v>28</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="1">
+        <v>175</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" spans="1:12">
+      <c r="A14" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B14" s="1">
+        <v>23</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="1">
+        <v>174</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="1" spans="1:12">
+      <c r="A15" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B15" s="1">
+        <v>21</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G15" s="1">
+        <v>168</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" s="1" customFormat="1" spans="1:12">
+      <c r="A16" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B16" s="1">
+        <v>31</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2">
+      <c r="D16" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" s="1">
         <v>178</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H16" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" s="1" customFormat="1" spans="1:12">
+      <c r="A17" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B17" s="1">
+        <v>26</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G17" s="1">
+        <v>165</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" s="1" customFormat="1" spans="1:12">
+      <c r="A18" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B18" s="1">
+        <v>24</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I2" t="s">
+      <c r="G18" s="1">
+        <v>173</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="19" s="1" customFormat="1" spans="1:12">
+      <c r="A19" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B19" s="1">
+        <v>3</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" s="1">
+        <v>50</v>
+      </c>
+      <c r="H19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J2" t="s">
+      <c r="I19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3">
-        <v>58</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3">
-        <v>175</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4">
-        <v>56</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4">
-        <v>174</v>
-      </c>
-      <c r="H4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5">
-        <v>62</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5">
-        <v>173</v>
-      </c>
-      <c r="H5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I5" t="s">
-        <v>29</v>
-      </c>
-      <c r="J5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6">
-        <v>62</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6">
-        <v>167</v>
-      </c>
-      <c r="H6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I6" t="s">
-        <v>35</v>
-      </c>
-      <c r="J6" t="s">
-        <v>18</v>
-      </c>
-      <c r="K6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7">
-        <v>69</v>
-      </c>
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7">
-        <v>176</v>
-      </c>
-      <c r="H7" t="s">
-        <v>28</v>
-      </c>
-      <c r="I7" t="s">
-        <v>35</v>
-      </c>
-      <c r="J7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8">
-        <v>62</v>
-      </c>
-      <c r="C8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" t="s">
-        <v>42</v>
-      </c>
-      <c r="F8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8">
-        <v>168</v>
-      </c>
-      <c r="H8" t="s">
-        <v>28</v>
-      </c>
-      <c r="I8" t="s">
-        <v>35</v>
-      </c>
-      <c r="J8" t="s">
-        <v>22</v>
-      </c>
-      <c r="K8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B9">
-        <v>60</v>
-      </c>
-      <c r="C9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" t="s">
-        <v>45</v>
-      </c>
-      <c r="F9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9">
-        <v>171</v>
-      </c>
-      <c r="H9" t="s">
-        <v>28</v>
-      </c>
-      <c r="I9" t="s">
-        <v>46</v>
-      </c>
-      <c r="J9" t="s">
-        <v>36</v>
-      </c>
-      <c r="K9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" t="s">
-        <v>48</v>
-      </c>
-      <c r="B10">
-        <v>57</v>
-      </c>
-      <c r="C10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" t="s">
-        <v>49</v>
-      </c>
-      <c r="E10" t="s">
-        <v>45</v>
-      </c>
-      <c r="F10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10">
-        <v>172</v>
-      </c>
-      <c r="H10" t="s">
-        <v>50</v>
-      </c>
-      <c r="I10" t="s">
-        <v>29</v>
-      </c>
-      <c r="J10" t="s">
-        <v>36</v>
-      </c>
-      <c r="K10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" t="s">
-        <v>51</v>
-      </c>
-      <c r="B11">
-        <v>55</v>
-      </c>
-      <c r="C11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" t="s">
-        <v>52</v>
-      </c>
-      <c r="E11" t="s">
-        <v>45</v>
-      </c>
-      <c r="F11" t="s">
-        <v>34</v>
-      </c>
-      <c r="G11">
-        <v>165</v>
-      </c>
-      <c r="H11" t="s">
-        <v>50</v>
-      </c>
-      <c r="I11" t="s">
-        <v>46</v>
-      </c>
-      <c r="J11" t="s">
-        <v>25</v>
-      </c>
-      <c r="K11" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" t="s">
-        <v>54</v>
-      </c>
-      <c r="B12">
-        <v>54</v>
-      </c>
-      <c r="C12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" t="s">
-        <v>55</v>
-      </c>
-      <c r="E12" t="s">
-        <v>45</v>
-      </c>
-      <c r="F12" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12">
-        <v>173</v>
-      </c>
-      <c r="H12" t="s">
-        <v>50</v>
-      </c>
-      <c r="I12" t="s">
-        <v>46</v>
-      </c>
-      <c r="J12" t="s">
-        <v>25</v>
-      </c>
-      <c r="K12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" t="s">
-        <v>56</v>
-      </c>
-      <c r="B13">
-        <v>20</v>
-      </c>
-      <c r="C13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" t="s">
-        <v>57</v>
-      </c>
-      <c r="E13" t="s">
-        <v>45</v>
-      </c>
-      <c r="F13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13">
-        <v>180</v>
-      </c>
-      <c r="H13" t="s">
-        <v>58</v>
-      </c>
-      <c r="I13" t="s">
-        <v>59</v>
-      </c>
-      <c r="J13" t="s">
-        <v>54</v>
-      </c>
-      <c r="K13" t="s">
-        <v>60</v>
+      <c r="J19" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
-  <ignoredErrors>
-    <ignoredError sqref="C1:L3 C4 E4:L4 C5 E5:L5 C6 E6:L6 C7 E7:L7 C8 E8:L8 A1:A13 L13 H13:K13 C13:F13 C9:L12" numberStoredAsText="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
 
